--- a/biology/Zoologie/Carpomys/Carpomys.xlsx
+++ b/biology/Zoologie/Carpomys/Carpomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carpomys est un genre de rongeurs de la famille des Murinés. Les anglophones les nomment Indian rock rats (rats des rochers indiens). Les deux espèces de ce genre sont endémiques des Philippines.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce genre comprend les espèces suivantes :
 Carpomys melanurus Thomas, 1895 
